--- a/11. BBP Blood-Brain Barrier Peptides/BBP_train.xlsx
+++ b/11. BBP Blood-Brain Barrier Peptides/BBP_train.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenjiaodu/Desktop/universial model/Supplementary documents Datasets and Models/11. BBP Blood-Brain Barrier Peptides/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenjiaodu/Downloads/UniDL4BioPep-main/11. BBP Blood-Brain Barrier Peptides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645C972F-E7EC-8548-A58C-F38D17F848D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EB4B38-D0AA-C24F-A30D-25AF33BC3C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10360" yWindow="3200" windowWidth="28040" windowHeight="16940" xr2:uid="{467A8C1B-855D-374B-A680-EA785F4FB0E3}"/>
   </bookViews>
@@ -693,9 +693,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -733,7 +733,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -839,7 +839,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -981,7 +981,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -992,7 +992,7 @@
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D188" sqref="D188"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1010,7 +1010,7 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1018,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1026,7 +1026,7 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1034,7 +1034,7 @@
         <v>93</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1042,7 +1042,7 @@
         <v>87</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1050,7 +1050,7 @@
         <v>68</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1058,7 +1058,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1066,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1074,7 +1074,7 @@
         <v>31</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1082,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1090,7 +1090,7 @@
         <v>75</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1098,7 +1098,7 @@
         <v>63</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1106,7 +1106,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1114,7 +1114,7 @@
         <v>54</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1122,7 +1122,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1130,7 +1130,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1138,7 +1138,7 @@
         <v>52</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1146,7 +1146,7 @@
         <v>74</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1154,7 +1154,7 @@
         <v>89</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1162,7 +1162,7 @@
         <v>56</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1170,7 +1170,7 @@
         <v>47</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1178,7 +1178,7 @@
         <v>15</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1186,7 +1186,7 @@
         <v>45</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1194,7 +1194,7 @@
         <v>78</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1202,7 +1202,7 @@
         <v>21</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1210,7 +1210,7 @@
         <v>97</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1218,7 +1218,7 @@
         <v>55</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1226,7 +1226,7 @@
         <v>81</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1234,7 +1234,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1242,7 +1242,7 @@
         <v>62</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1250,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1258,7 +1258,7 @@
         <v>85</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1266,7 +1266,7 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1274,7 +1274,7 @@
         <v>83</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1282,7 +1282,7 @@
         <v>4</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1290,7 +1290,7 @@
         <v>48</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1298,7 +1298,7 @@
         <v>11</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1306,7 +1306,7 @@
         <v>76</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1314,7 +1314,7 @@
         <v>35</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1330,7 +1330,7 @@
         <v>69</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1338,7 +1338,7 @@
         <v>5</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1346,7 +1346,7 @@
         <v>58</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1354,7 +1354,7 @@
         <v>96</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1362,7 +1362,7 @@
         <v>67</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1370,7 +1370,7 @@
         <v>90</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1378,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1386,7 +1386,7 @@
         <v>99</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1394,7 +1394,7 @@
         <v>61</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1402,7 +1402,7 @@
         <v>98</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1410,7 +1410,7 @@
         <v>14</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1418,7 +1418,7 @@
         <v>80</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1426,7 +1426,7 @@
         <v>42</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1434,7 +1434,7 @@
         <v>84</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1442,7 +1442,7 @@
         <v>79</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1450,7 +1450,7 @@
         <v>32</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1458,7 +1458,7 @@
         <v>18</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1466,7 +1466,7 @@
         <v>95</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1474,7 +1474,7 @@
         <v>51</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1482,7 +1482,7 @@
         <v>88</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1490,7 +1490,7 @@
         <v>91</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1498,7 +1498,7 @@
         <v>25</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1506,7 +1506,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1514,7 +1514,7 @@
         <v>57</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1522,7 +1522,7 @@
         <v>22</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1530,7 +1530,7 @@
         <v>20</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1538,7 +1538,7 @@
         <v>37</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1546,7 +1546,7 @@
         <v>43</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1554,7 +1554,7 @@
         <v>39</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1562,7 +1562,7 @@
         <v>92</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1570,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1578,7 +1578,7 @@
         <v>49</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1586,7 +1586,7 @@
         <v>17</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1594,7 +1594,7 @@
         <v>36</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1602,7 +1602,7 @@
         <v>82</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1610,7 +1610,7 @@
         <v>19</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1618,7 +1618,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1626,7 +1626,7 @@
         <v>71</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1634,7 +1634,7 @@
         <v>65</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1642,7 +1642,7 @@
         <v>94</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1650,7 +1650,7 @@
         <v>70</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1658,7 +1658,7 @@
         <v>34</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1666,7 +1666,7 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1674,7 +1674,7 @@
         <v>66</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1682,7 +1682,7 @@
         <v>72</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1698,7 +1698,7 @@
         <v>44</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1706,7 +1706,7 @@
         <v>24</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1714,7 +1714,7 @@
         <v>8</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1722,7 +1722,7 @@
         <v>53</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1730,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1738,7 +1738,7 @@
         <v>26</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1746,7 +1746,7 @@
         <v>50</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1754,7 +1754,7 @@
         <v>33</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1762,7 +1762,7 @@
         <v>46</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1770,7 +1770,7 @@
         <v>40</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1778,7 +1778,7 @@
         <v>60</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1786,7 +1786,7 @@
         <v>28</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1794,7 +1794,7 @@
         <v>73</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1802,7 +1802,7 @@
         <v>59</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1810,7 +1810,7 @@
         <v>186</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1818,7 +1818,7 @@
         <v>41</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1826,7 +1826,7 @@
         <v>172</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1834,7 +1834,7 @@
         <v>143</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1842,7 +1842,7 @@
         <v>175</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1850,7 +1850,7 @@
         <v>116</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1858,7 +1858,7 @@
         <v>166</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1866,7 +1866,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1874,7 +1874,7 @@
         <v>139</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1882,7 +1882,7 @@
         <v>121</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -1890,7 +1890,7 @@
         <v>170</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -1898,7 +1898,7 @@
         <v>195</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -1906,7 +1906,7 @@
         <v>194</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -1914,7 +1914,7 @@
         <v>178</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1922,7 +1922,7 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -1930,7 +1930,7 @@
         <v>183</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -1938,7 +1938,7 @@
         <v>122</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -1946,7 +1946,7 @@
         <v>138</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -1954,7 +1954,7 @@
         <v>151</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -1962,7 +1962,7 @@
         <v>152</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -1970,7 +1970,7 @@
         <v>159</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -1978,7 +1978,7 @@
         <v>118</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -1986,7 +1986,7 @@
         <v>102</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -1994,7 +1994,7 @@
         <v>101</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -2002,7 +2002,7 @@
         <v>154</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -2010,7 +2010,7 @@
         <v>184</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -2018,7 +2018,7 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -2026,7 +2026,7 @@
         <v>161</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -2034,7 +2034,7 @@
         <v>103</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -2042,7 +2042,7 @@
         <v>189</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -2050,7 +2050,7 @@
         <v>128</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -2058,7 +2058,7 @@
         <v>113</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -2066,7 +2066,7 @@
         <v>125</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -2074,7 +2074,7 @@
         <v>185</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -2082,7 +2082,7 @@
         <v>145</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -2090,7 +2090,7 @@
         <v>192</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -2098,7 +2098,7 @@
         <v>115</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -2106,7 +2106,7 @@
         <v>100</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -2114,7 +2114,7 @@
         <v>127</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -2122,7 +2122,7 @@
         <v>104</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -2130,7 +2130,7 @@
         <v>132</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -2138,7 +2138,7 @@
         <v>190</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -2146,7 +2146,7 @@
         <v>105</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -2154,7 +2154,7 @@
         <v>136</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -2162,7 +2162,7 @@
         <v>150</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -2170,7 +2170,7 @@
         <v>126</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -2178,7 +2178,7 @@
         <v>196</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -2186,7 +2186,7 @@
         <v>180</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -2194,7 +2194,7 @@
         <v>187</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -2202,7 +2202,7 @@
         <v>107</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -2210,7 +2210,7 @@
         <v>158</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -2218,7 +2218,7 @@
         <v>157</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -2226,7 +2226,7 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -2234,7 +2234,7 @@
         <v>162</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -2242,7 +2242,7 @@
         <v>149</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -2250,7 +2250,7 @@
         <v>176</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -2258,7 +2258,7 @@
         <v>112</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -2266,7 +2266,7 @@
         <v>153</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -2274,7 +2274,7 @@
         <v>174</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -2282,7 +2282,7 @@
         <v>181</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -2290,7 +2290,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -2298,7 +2298,7 @@
         <v>124</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -2306,7 +2306,7 @@
         <v>140</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -2314,7 +2314,7 @@
         <v>108</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -2322,7 +2322,7 @@
         <v>177</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -2330,7 +2330,7 @@
         <v>110</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -2338,7 +2338,7 @@
         <v>155</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -2346,7 +2346,7 @@
         <v>148</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -2354,7 +2354,7 @@
         <v>165</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -2362,7 +2362,7 @@
         <v>182</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -2370,7 +2370,7 @@
         <v>137</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -2378,7 +2378,7 @@
         <v>141</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -2386,7 +2386,7 @@
         <v>133</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -2394,7 +2394,7 @@
         <v>120</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -2402,7 +2402,7 @@
         <v>188</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -2410,7 +2410,7 @@
         <v>131</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -2418,7 +2418,7 @@
         <v>144</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -2426,7 +2426,7 @@
         <v>117</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -2434,7 +2434,7 @@
         <v>106</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -2442,7 +2442,7 @@
         <v>147</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -2450,7 +2450,7 @@
         <v>146</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -2458,7 +2458,7 @@
         <v>135</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -2466,7 +2466,7 @@
         <v>167</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -2474,7 +2474,7 @@
         <v>109</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -2482,7 +2482,7 @@
         <v>179</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -2490,7 +2490,7 @@
         <v>173</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -2498,7 +2498,7 @@
         <v>163</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -2506,7 +2506,7 @@
         <v>168</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -2514,7 +2514,7 @@
         <v>123</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -2522,7 +2522,7 @@
         <v>198</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -2530,7 +2530,7 @@
         <v>142</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -2538,7 +2538,7 @@
         <v>134</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -2546,7 +2546,7 @@
         <v>191</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -2554,7 +2554,7 @@
         <v>169</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -2562,7 +2562,7 @@
         <v>164</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -2570,7 +2570,7 @@
         <v>193</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -2578,7 +2578,7 @@
         <v>171</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -2586,7 +2586,7 @@
         <v>111</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -2594,7 +2594,7 @@
         <v>197</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -2602,7 +2602,7 @@
         <v>129</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
